--- a/bike_cleaned.xlsx
+++ b/bike_cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razor\Desktop\Bike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550AFF2-6360-4B11-B0EC-2F3ED2531544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F966C19-D170-4A99-943C-DBBB63ED2B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="177">
   <si>
     <t>Bike Names</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>Max Torque By Nm</t>
+  </si>
+  <si>
+    <t>Fuel efficiency</t>
+  </si>
+  <si>
+    <t>ARAI</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>Fuel efficiency type</t>
   </si>
 </sst>
 </file>
@@ -597,12 +609,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,11 +949,13 @@
     <col min="17" max="17" width="25.109375" customWidth="1"/>
     <col min="18" max="18" width="26.5546875" customWidth="1"/>
     <col min="19" max="19" width="24.44140625" customWidth="1"/>
-    <col min="20" max="20" width="26.5546875" customWidth="1"/>
-    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="20" max="20" width="28.88671875" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,11 +1016,17 @@
       <c r="T1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1064,11 +1087,17 @@
       <c r="T2" s="2">
         <v>90</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1129,11 +1158,17 @@
       <c r="T3" s="2">
         <v>80</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2">
+        <v>56</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1194,11 +1229,17 @@
       <c r="T4" s="2">
         <v>90</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1259,11 +1300,17 @@
       <c r="T5" s="2">
         <v>80</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="2">
+        <v>47</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1324,11 +1371,17 @@
       <c r="T6" s="2">
         <v>80</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="2">
+        <v>48</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1389,11 +1442,17 @@
       <c r="T7" s="2">
         <v>70</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1454,11 +1513,17 @@
       <c r="T8" s="2">
         <v>70</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="2">
+        <v>44</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1519,11 +1584,17 @@
       <c r="T9" s="2">
         <v>70</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="2">
+        <v>35</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1584,11 +1655,17 @@
       <c r="T10" s="2">
         <v>80</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="2">
+        <v>38</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1649,11 +1726,17 @@
       <c r="T11" s="2">
         <v>70</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="2">
+        <v>35</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1714,11 +1797,17 @@
       <c r="T12" s="2">
         <v>70</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="U12" s="2">
+        <v>33</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1779,11 +1868,17 @@
       <c r="T13" s="2">
         <v>60</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="2">
+        <v>27</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1844,11 +1939,17 @@
       <c r="T14" s="2">
         <v>90</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="2">
+        <v>60</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1909,11 +2010,17 @@
       <c r="T15" s="2">
         <v>100</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="2">
+        <v>65</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1974,11 +2081,17 @@
       <c r="T16" s="2">
         <v>90</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="2">
+        <v>50</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W16" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2039,11 +2152,17 @@
       <c r="T17" s="2">
         <v>90</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="2">
+        <v>35</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2104,11 +2223,17 @@
       <c r="T18" s="2">
         <v>100</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="2">
+        <v>55</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W18" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2169,11 +2294,17 @@
       <c r="T19" s="2">
         <v>70</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="2">
+        <v>38</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W19" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2234,11 +2365,17 @@
       <c r="T20" s="2">
         <v>80</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="2">
+        <v>65</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W20" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -2299,11 +2436,17 @@
       <c r="T21" s="2">
         <v>70</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="2">
+        <v>42</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -2364,11 +2507,17 @@
       <c r="T22" s="2">
         <v>70</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="2">
+        <v>35</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -2429,11 +2578,17 @@
       <c r="T23" s="2">
         <v>80</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="2">
+        <v>28</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W23" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -2494,11 +2649,17 @@
       <c r="T24" s="2">
         <v>80</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="U24" s="2">
+        <v>30</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2559,11 +2720,17 @@
       <c r="T25" s="2">
         <v>90</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="2">
+        <v>40</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2624,11 +2791,17 @@
       <c r="T26" s="2">
         <v>70</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="2">
+        <v>43</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -2689,11 +2862,17 @@
       <c r="T27" s="2">
         <v>60</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="2">
+        <v>45</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -2754,11 +2933,17 @@
       <c r="T28" s="2">
         <v>60</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="2">
+        <v>46</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W28" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -2819,11 +3004,17 @@
       <c r="T29" s="2">
         <v>60</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U29" s="2">
+        <v>45</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W29" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -2884,11 +3075,17 @@
       <c r="T30" s="2">
         <v>60</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="2">
+        <v>45</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2949,11 +3146,17 @@
       <c r="T31" s="2">
         <v>60</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="2">
+        <v>46</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W31" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -3014,11 +3217,17 @@
       <c r="T32" s="2">
         <v>70</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="2">
+        <v>47</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W32" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -3079,11 +3288,17 @@
       <c r="T33" s="2">
         <v>70</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="2">
+        <v>45</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -3144,11 +3359,17 @@
       <c r="T34" s="2">
         <v>70</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U34" s="2">
+        <v>45</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W34" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3209,11 +3430,17 @@
       <c r="T35" s="2">
         <v>100</v>
       </c>
-      <c r="U35" s="2" t="s">
+      <c r="U35" s="2">
+        <v>67</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W35" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -3274,11 +3501,17 @@
       <c r="T36" s="2">
         <v>100</v>
       </c>
-      <c r="U36" s="2" t="s">
+      <c r="U36" s="2">
+        <v>42</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W36" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -3339,11 +3572,17 @@
       <c r="T37" s="2">
         <v>60</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="2">
+        <v>35</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W37" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -3404,11 +3643,17 @@
       <c r="T38" s="2">
         <v>60</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="2">
+        <v>30</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W38" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -3469,11 +3714,17 @@
       <c r="T39" s="2">
         <v>60</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U39" s="2">
+        <v>25</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W39" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3534,11 +3785,17 @@
       <c r="T40" s="2">
         <v>60</v>
       </c>
-      <c r="U40" s="2" t="s">
+      <c r="U40" s="2">
+        <v>35</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W40" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3599,11 +3856,17 @@
       <c r="T41" s="2">
         <v>60</v>
       </c>
-      <c r="U41" s="2" t="s">
+      <c r="U41" s="2">
+        <v>25</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W41" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3664,11 +3927,17 @@
       <c r="T42" s="2">
         <v>80</v>
       </c>
-      <c r="U42" s="2" t="s">
+      <c r="U42" s="2">
+        <v>30</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W42" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3729,11 +3998,17 @@
       <c r="T43" s="2">
         <v>80</v>
       </c>
-      <c r="U43" s="2" t="s">
+      <c r="U43" s="2">
+        <v>25</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W43" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -3794,11 +4069,17 @@
       <c r="T44" s="2">
         <v>80</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="2">
+        <v>28</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W44" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -3859,11 +4140,17 @@
       <c r="T45" s="2">
         <v>70</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U45" s="2">
+        <v>50</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W45" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -3924,11 +4211,17 @@
       <c r="T46" s="2">
         <v>90</v>
       </c>
-      <c r="U46" s="2" t="s">
+      <c r="U46" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W46" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -3989,11 +4282,17 @@
       <c r="T47" s="2">
         <v>90</v>
       </c>
-      <c r="U47" s="2" t="s">
+      <c r="U47" s="2">
+        <v>67</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W47" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -4054,11 +4353,17 @@
       <c r="T48" s="2">
         <v>80</v>
       </c>
-      <c r="U48" s="2" t="s">
+      <c r="U48" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W48" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -4119,11 +4424,17 @@
       <c r="T49" s="2">
         <v>60</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="U49" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W49" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
@@ -4184,11 +4495,17 @@
       <c r="T50" s="2">
         <v>80</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="U50" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W50" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
@@ -4249,11 +4566,17 @@
       <c r="T51" s="2">
         <v>90</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="U51" s="2">
+        <v>67</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W51" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -4314,11 +4637,17 @@
       <c r="T52" s="2">
         <v>80</v>
       </c>
-      <c r="U52" s="2" t="s">
+      <c r="U52" s="2">
+        <v>73</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W52" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
@@ -4379,11 +4708,17 @@
       <c r="T53" s="2">
         <v>70</v>
       </c>
-      <c r="U53" s="2" t="s">
+      <c r="U53" s="2">
+        <v>50</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W53" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
@@ -4444,11 +4779,17 @@
       <c r="T54" s="2">
         <v>70</v>
       </c>
-      <c r="U54" s="2" t="s">
+      <c r="U54" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W54" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
@@ -4509,11 +4850,17 @@
       <c r="T55" s="2">
         <v>70</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="U55" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W55" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
@@ -4574,11 +4921,17 @@
       <c r="T56" s="2">
         <v>80</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="U56" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W56" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
@@ -4639,11 +4992,17 @@
       <c r="T57" s="2">
         <v>70</v>
       </c>
-      <c r="U57" s="2" t="s">
+      <c r="U57" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W57" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -4704,11 +5063,17 @@
       <c r="T58" s="2">
         <v>70</v>
       </c>
-      <c r="U58" s="2" t="s">
+      <c r="U58" s="2">
+        <v>32</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W58" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -4769,11 +5134,17 @@
       <c r="T59" s="2">
         <v>60</v>
       </c>
-      <c r="U59" s="2" t="s">
+      <c r="U59" s="2">
+        <v>34</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W59" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
@@ -4834,11 +5205,17 @@
       <c r="T60" s="2">
         <v>60</v>
       </c>
-      <c r="U60" s="2" t="s">
+      <c r="U60" s="2">
+        <v>34</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W60" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
@@ -4899,11 +5276,17 @@
       <c r="T61" s="2">
         <v>60</v>
       </c>
-      <c r="U61" s="2" t="s">
+      <c r="U61" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W61" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -4964,11 +5347,17 @@
       <c r="T62" s="2">
         <v>100</v>
       </c>
-      <c r="U62" s="2" t="s">
+      <c r="U62" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W62" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -5029,11 +5418,17 @@
       <c r="T63" s="2">
         <v>100</v>
       </c>
-      <c r="U63" s="2" t="s">
+      <c r="U63" s="2">
+        <v>70</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W63" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -5094,11 +5489,17 @@
       <c r="T64" s="2">
         <v>80</v>
       </c>
-      <c r="U64" s="2" t="s">
+      <c r="U64" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W64" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -5159,11 +5560,17 @@
       <c r="T65" s="2">
         <v>80</v>
       </c>
-      <c r="U65" s="2" t="s">
+      <c r="U65" s="2">
+        <v>66</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W65" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
@@ -5224,11 +5631,17 @@
       <c r="T66" s="2">
         <v>70</v>
       </c>
-      <c r="U66" s="2" t="s">
+      <c r="U66" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W66" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -5289,11 +5702,17 @@
       <c r="T67" s="2">
         <v>80</v>
       </c>
-      <c r="U67" s="2" t="s">
+      <c r="U67" s="2">
+        <v>37</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W67" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
@@ -5354,11 +5773,17 @@
       <c r="T68" s="2">
         <v>70</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="U68" s="2">
+        <v>36</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W68" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>75</v>
       </c>
@@ -5419,11 +5844,17 @@
       <c r="T69" s="2">
         <v>80</v>
       </c>
-      <c r="U69" s="2" t="s">
+      <c r="U69" s="2">
+        <v>30</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W69" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
@@ -5484,11 +5915,17 @@
       <c r="T70" s="2">
         <v>90</v>
       </c>
-      <c r="U70" s="2" t="s">
+      <c r="U70" s="2">
+        <v>35</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W70" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>77</v>
       </c>
@@ -5549,11 +5986,17 @@
       <c r="T71" s="2">
         <v>70</v>
       </c>
-      <c r="U71" s="2" t="s">
+      <c r="U71" s="2">
+        <v>35</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W71" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
@@ -5614,11 +6057,17 @@
       <c r="T72" s="2">
         <v>60</v>
       </c>
-      <c r="U72" s="2" t="s">
+      <c r="U72" s="2">
+        <v>25</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W72" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -5679,11 +6128,17 @@
       <c r="T73" s="2">
         <v>60</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U73" s="2">
+        <v>32</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W73" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>80</v>
       </c>
@@ -5744,11 +6199,17 @@
       <c r="T74" s="2">
         <v>60</v>
       </c>
-      <c r="U74" s="2" t="s">
+      <c r="U74" s="2">
+        <v>24</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W74" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>81</v>
       </c>
@@ -5809,11 +6270,17 @@
       <c r="T75" s="2">
         <v>60</v>
       </c>
-      <c r="U75" s="2" t="s">
+      <c r="U75" s="2">
+        <v>30</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W75" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>82</v>
       </c>
@@ -5874,11 +6341,17 @@
       <c r="T76" s="2">
         <v>70</v>
       </c>
-      <c r="U76" s="2" t="s">
+      <c r="U76" s="2">
+        <v>22</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W76" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>83</v>
       </c>
@@ -5939,11 +6412,17 @@
       <c r="T77" s="2">
         <v>70</v>
       </c>
-      <c r="U77" s="2" t="s">
+      <c r="U77" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W77" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>84</v>
       </c>
@@ -6004,11 +6483,17 @@
       <c r="T78" s="2">
         <v>60</v>
       </c>
-      <c r="U78" s="2" t="s">
+      <c r="U78" s="2">
+        <v>32</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W78" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>85</v>
       </c>
@@ -6069,11 +6554,17 @@
       <c r="T79" s="2">
         <v>80</v>
       </c>
-      <c r="U79" s="2" t="s">
+      <c r="U79" s="2">
+        <v>60</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W79" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>86</v>
       </c>
@@ -6134,11 +6625,17 @@
       <c r="T80" s="2">
         <v>70</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="U80" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W80" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
@@ -6199,11 +6696,17 @@
       <c r="T81" s="2">
         <v>70</v>
       </c>
-      <c r="U81" s="2" t="s">
+      <c r="U81" s="2">
+        <v>42</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W81" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>88</v>
       </c>
@@ -6264,11 +6767,17 @@
       <c r="T82" s="2">
         <v>60</v>
       </c>
-      <c r="U82" s="2" t="s">
+      <c r="U82" s="2">
+        <v>28</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W82" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>89</v>
       </c>
@@ -6329,11 +6838,17 @@
       <c r="T83" s="2">
         <v>55</v>
       </c>
-      <c r="U83" s="2" t="s">
+      <c r="U83" s="2">
+        <v>18</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W83" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>90</v>
       </c>
@@ -6394,11 +6909,17 @@
       <c r="T84" s="2">
         <v>70</v>
       </c>
-      <c r="U84" s="2" t="s">
+      <c r="U84" s="2">
+        <v>28</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W84" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>91</v>
       </c>
@@ -6459,11 +6980,17 @@
       <c r="T85" s="2">
         <v>80</v>
       </c>
-      <c r="U85" s="2" t="s">
+      <c r="U85" s="2">
+        <v>27</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W85" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>92</v>
       </c>
@@ -6524,11 +7051,17 @@
       <c r="T86" s="2">
         <v>80</v>
       </c>
-      <c r="U86" s="2" t="s">
+      <c r="U86" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W86" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>93</v>
       </c>
@@ -6589,11 +7122,17 @@
       <c r="T87" s="2">
         <v>70</v>
       </c>
-      <c r="U87" s="2" t="s">
+      <c r="U87" s="2">
+        <v>30</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W87" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6654,11 +7193,17 @@
       <c r="T88" s="2">
         <v>70</v>
       </c>
-      <c r="U88" s="2" t="s">
+      <c r="U88" s="2">
+        <v>32</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W88" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6719,11 +7264,17 @@
       <c r="T89" s="2">
         <v>60</v>
       </c>
-      <c r="U89" s="2" t="s">
+      <c r="U89" s="2">
+        <v>25</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W89" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6784,11 +7335,17 @@
       <c r="T90" s="2">
         <v>60</v>
       </c>
-      <c r="U90" s="2" t="s">
+      <c r="U90" s="2">
+        <v>24</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W90" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>97</v>
       </c>
@@ -6849,7 +7406,13 @@
       <c r="T91" s="2">
         <v>90</v>
       </c>
-      <c r="U91" s="2" t="s">
+      <c r="U91" s="2">
+        <v>35</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W91" s="2" t="s">
         <v>128</v>
       </c>
     </row>

--- a/bike_cleaned.xlsx
+++ b/bike_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razor\Desktop\Bike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F966C19-D170-4A99-943C-DBBB63ED2B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201087FF-1BE1-4624-ABCE-5BA421F011A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,9 +520,6 @@
     <t>Seat Height mm</t>
   </si>
   <si>
-    <t>Kerb Weight mm</t>
-  </si>
-  <si>
     <t>Wheel Base mm</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>Fuel efficiency type</t>
+  </si>
+  <si>
+    <t>Kerb Weight kg</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O97" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,13 +975,13 @@
         <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>165</v>
@@ -993,7 +993,7 @@
         <v>163</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>4</v>
@@ -1005,22 +1005,22 @@
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>7</v>
@@ -1091,7 +1091,7 @@
         <v>51.5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>120</v>
@@ -1162,7 +1162,7 @@
         <v>56</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>120</v>
@@ -1233,7 +1233,7 @@
         <v>49.5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>121</v>
@@ -1304,7 +1304,7 @@
         <v>47</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>120</v>
@@ -1375,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>121</v>
@@ -1446,7 +1446,7 @@
         <v>44.4</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>121</v>
@@ -1517,7 +1517,7 @@
         <v>44</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>121</v>
@@ -1588,7 +1588,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>121</v>
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>122</v>
@@ -1730,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>121</v>
@@ -1801,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>123</v>
@@ -1872,7 +1872,7 @@
         <v>27</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>124</v>
@@ -1943,7 +1943,7 @@
         <v>60</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>120</v>
@@ -2014,7 +2014,7 @@
         <v>65</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>120</v>
@@ -2085,7 +2085,7 @@
         <v>50</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>125</v>
@@ -2156,7 +2156,7 @@
         <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>125</v>
@@ -2227,7 +2227,7 @@
         <v>55</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>120</v>
@@ -2298,7 +2298,7 @@
         <v>38</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>126</v>
@@ -2369,7 +2369,7 @@
         <v>65</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>120</v>
@@ -2440,7 +2440,7 @@
         <v>42</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>121</v>
@@ -2511,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>127</v>
@@ -2582,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>128</v>
@@ -2653,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>129</v>
@@ -2724,7 +2724,7 @@
         <v>40</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>129</v>
@@ -2795,7 +2795,7 @@
         <v>43</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>130</v>
@@ -2866,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>131</v>
@@ -2937,7 +2937,7 @@
         <v>46</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>131</v>
@@ -3008,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>132</v>
@@ -3079,7 +3079,7 @@
         <v>45</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>133</v>
@@ -3150,7 +3150,7 @@
         <v>46</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>131</v>
@@ -3221,7 +3221,7 @@
         <v>47</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W32" s="2" t="s">
         <v>134</v>
@@ -3292,7 +3292,7 @@
         <v>45</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>135</v>
@@ -3363,7 +3363,7 @@
         <v>45</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>135</v>
@@ -3434,7 +3434,7 @@
         <v>67</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>132</v>
@@ -3505,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>129</v>
@@ -3576,7 +3576,7 @@
         <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>136</v>
@@ -3647,7 +3647,7 @@
         <v>30</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>136</v>
@@ -3718,7 +3718,7 @@
         <v>25</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>136</v>
@@ -3789,7 +3789,7 @@
         <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>135</v>
@@ -3860,7 +3860,7 @@
         <v>25</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>135</v>
@@ -3931,7 +3931,7 @@
         <v>30</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W42" s="2" t="s">
         <v>137</v>
@@ -4002,7 +4002,7 @@
         <v>25</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>137</v>
@@ -4073,7 +4073,7 @@
         <v>28</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>129</v>
@@ -4144,7 +4144,7 @@
         <v>50</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>132</v>
@@ -4215,7 +4215,7 @@
         <v>71</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>138</v>
@@ -4286,7 +4286,7 @@
         <v>67</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>138</v>
@@ -4357,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>139</v>
@@ -4428,7 +4428,7 @@
         <v>38.5</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>135</v>
@@ -4499,7 +4499,7 @@
         <v>49.8</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>140</v>
@@ -4570,7 +4570,7 @@
         <v>67</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>141</v>
@@ -4641,7 +4641,7 @@
         <v>73</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>141</v>
@@ -4712,7 +4712,7 @@
         <v>50</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W53" s="2" t="s">
         <v>141</v>
@@ -4783,7 +4783,7 @@
         <v>42</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W54" s="2" t="s">
         <v>142</v>
@@ -4854,7 +4854,7 @@
         <v>45</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W55" s="2" t="s">
         <v>143</v>
@@ -4925,7 +4925,7 @@
         <v>49.8</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W56" s="2" t="s">
         <v>120</v>
@@ -4996,7 +4996,7 @@
         <v>41</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>143</v>
@@ -5067,7 +5067,7 @@
         <v>32</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>126</v>
@@ -5138,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>135</v>
@@ -5209,7 +5209,7 @@
         <v>34</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W60" s="2" t="s">
         <v>143</v>
@@ -5280,7 +5280,7 @@
         <v>45</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W61" s="2" t="s">
         <v>143</v>
@@ -5351,7 +5351,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W62" s="2" t="s">
         <v>120</v>
@@ -5422,7 +5422,7 @@
         <v>70</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W63" s="2" t="s">
         <v>120</v>
@@ -5493,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>120</v>
@@ -5564,7 +5564,7 @@
         <v>66</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>129</v>
@@ -5635,7 +5635,7 @@
         <v>45</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W66" s="2" t="s">
         <v>121</v>
@@ -5706,7 +5706,7 @@
         <v>37</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W67" s="2" t="s">
         <v>127</v>
@@ -5777,7 +5777,7 @@
         <v>36</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W68" s="2" t="s">
         <v>142</v>
@@ -5848,7 +5848,7 @@
         <v>30</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>126</v>
@@ -5919,7 +5919,7 @@
         <v>35</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>144</v>
@@ -5990,7 +5990,7 @@
         <v>35</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>125</v>
@@ -6061,7 +6061,7 @@
         <v>25</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W72" s="2" t="s">
         <v>145</v>
@@ -6132,7 +6132,7 @@
         <v>32</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W73" s="2" t="s">
         <v>143</v>
@@ -6203,7 +6203,7 @@
         <v>24</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>143</v>
@@ -6274,7 +6274,7 @@
         <v>30</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>143</v>
@@ -6345,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W76" s="2" t="s">
         <v>126</v>
@@ -6416,7 +6416,7 @@
         <v>45</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W77" s="2" t="s">
         <v>143</v>
@@ -6487,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>145</v>
@@ -6558,7 +6558,7 @@
         <v>60</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W79" s="2" t="s">
         <v>120</v>
@@ -6629,7 +6629,7 @@
         <v>45</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>143</v>
@@ -6700,7 +6700,7 @@
         <v>42</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>121</v>
@@ -6771,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>143</v>
@@ -6842,7 +6842,7 @@
         <v>18</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>143</v>
@@ -6913,7 +6913,7 @@
         <v>28</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>142</v>
@@ -6984,7 +6984,7 @@
         <v>27</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W85" s="2" t="s">
         <v>146</v>
@@ -7055,7 +7055,7 @@
         <v>34.1</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>127</v>
@@ -7126,7 +7126,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W87" s="2" t="s">
         <v>147</v>
@@ -7197,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W88" s="2" t="s">
         <v>127</v>
@@ -7268,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W89" s="2" t="s">
         <v>128</v>
@@ -7339,7 +7339,7 @@
         <v>24</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W90" s="2" t="s">
         <v>128</v>
@@ -7410,7 +7410,7 @@
         <v>35</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W91" s="2" t="s">
         <v>128</v>

--- a/bike_cleaned.xlsx
+++ b/bike_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razor\Desktop\Bike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201087FF-1BE1-4624-ABCE-5BA421F011A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E34B4-B5FE-487A-A3AD-05CA3323DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,9 +538,6 @@
     <t>Max Torque By Nm</t>
   </si>
   <si>
-    <t>Fuel efficiency</t>
-  </si>
-  <si>
     <t>ARAI</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>Kerb Weight kg</t>
+  </si>
+  <si>
+    <t>Fuel efficiency mileage</t>
   </si>
 </sst>
 </file>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O97" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,7 +950,7 @@
     <col min="18" max="18" width="26.5546875" customWidth="1"/>
     <col min="19" max="19" width="24.44140625" customWidth="1"/>
     <col min="20" max="20" width="28.88671875" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
     <col min="22" max="22" width="22.33203125" customWidth="1"/>
     <col min="23" max="23" width="24" customWidth="1"/>
   </cols>
@@ -981,7 +981,7 @@
         <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>165</v>
@@ -1017,10 +1017,10 @@
         <v>170</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>7</v>
@@ -1091,7 +1091,7 @@
         <v>51.5</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>120</v>
@@ -1162,7 +1162,7 @@
         <v>56</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>120</v>
@@ -1233,7 +1233,7 @@
         <v>49.5</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>121</v>
@@ -1304,7 +1304,7 @@
         <v>47</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>120</v>
@@ -1375,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>121</v>
@@ -1446,7 +1446,7 @@
         <v>44.4</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>121</v>
@@ -1517,7 +1517,7 @@
         <v>44</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>121</v>
@@ -1588,7 +1588,7 @@
         <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>121</v>
@@ -1659,7 +1659,7 @@
         <v>38</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>122</v>
@@ -1730,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>121</v>
@@ -1801,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>123</v>
@@ -1872,7 +1872,7 @@
         <v>27</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>124</v>
@@ -1943,7 +1943,7 @@
         <v>60</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>120</v>
@@ -2014,7 +2014,7 @@
         <v>65</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>120</v>
@@ -2085,7 +2085,7 @@
         <v>50</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>125</v>
@@ -2156,7 +2156,7 @@
         <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>125</v>
@@ -2227,7 +2227,7 @@
         <v>55</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>120</v>
@@ -2298,7 +2298,7 @@
         <v>38</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>126</v>
@@ -2369,7 +2369,7 @@
         <v>65</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>120</v>
@@ -2440,7 +2440,7 @@
         <v>42</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>121</v>
@@ -2511,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>127</v>
@@ -2582,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>128</v>
@@ -2653,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>129</v>
@@ -2724,7 +2724,7 @@
         <v>40</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>129</v>
@@ -2795,7 +2795,7 @@
         <v>43</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W26" s="2" t="s">
         <v>130</v>
@@ -2866,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>131</v>
@@ -2937,7 +2937,7 @@
         <v>46</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>131</v>
@@ -3008,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>132</v>
@@ -3079,7 +3079,7 @@
         <v>45</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>133</v>
@@ -3150,7 +3150,7 @@
         <v>46</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>131</v>
@@ -3221,7 +3221,7 @@
         <v>47</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W32" s="2" t="s">
         <v>134</v>
@@ -3292,7 +3292,7 @@
         <v>45</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>135</v>
@@ -3363,7 +3363,7 @@
         <v>45</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W34" s="2" t="s">
         <v>135</v>
@@ -3434,7 +3434,7 @@
         <v>67</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W35" s="2" t="s">
         <v>132</v>
@@ -3505,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W36" s="2" t="s">
         <v>129</v>
@@ -3576,7 +3576,7 @@
         <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>136</v>
@@ -3647,7 +3647,7 @@
         <v>30</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>136</v>
@@ -3718,7 +3718,7 @@
         <v>25</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>136</v>
@@ -3789,7 +3789,7 @@
         <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>135</v>
@@ -3860,7 +3860,7 @@
         <v>25</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>135</v>
@@ -3931,7 +3931,7 @@
         <v>30</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W42" s="2" t="s">
         <v>137</v>
@@ -4002,7 +4002,7 @@
         <v>25</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>137</v>
@@ -4073,7 +4073,7 @@
         <v>28</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>129</v>
@@ -4144,7 +4144,7 @@
         <v>50</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>132</v>
@@ -4215,7 +4215,7 @@
         <v>71</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W46" s="2" t="s">
         <v>138</v>
@@ -4286,7 +4286,7 @@
         <v>67</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>138</v>
@@ -4357,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>139</v>
@@ -4428,7 +4428,7 @@
         <v>38.5</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>135</v>
@@ -4499,7 +4499,7 @@
         <v>49.8</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W50" s="2" t="s">
         <v>140</v>
@@ -4570,7 +4570,7 @@
         <v>67</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W51" s="2" t="s">
         <v>141</v>
@@ -4641,7 +4641,7 @@
         <v>73</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>141</v>
@@ -4712,7 +4712,7 @@
         <v>50</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W53" s="2" t="s">
         <v>141</v>
@@ -4783,7 +4783,7 @@
         <v>42</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W54" s="2" t="s">
         <v>142</v>
@@ -4854,7 +4854,7 @@
         <v>45</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W55" s="2" t="s">
         <v>143</v>
@@ -4925,7 +4925,7 @@
         <v>49.8</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W56" s="2" t="s">
         <v>120</v>
@@ -4996,7 +4996,7 @@
         <v>41</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W57" s="2" t="s">
         <v>143</v>
@@ -5067,7 +5067,7 @@
         <v>32</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W58" s="2" t="s">
         <v>126</v>
@@ -5138,7 +5138,7 @@
         <v>34</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>135</v>
@@ -5209,7 +5209,7 @@
         <v>34</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W60" s="2" t="s">
         <v>143</v>
@@ -5280,7 +5280,7 @@
         <v>45</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W61" s="2" t="s">
         <v>143</v>
@@ -5351,7 +5351,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W62" s="2" t="s">
         <v>120</v>
@@ -5422,7 +5422,7 @@
         <v>70</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W63" s="2" t="s">
         <v>120</v>
@@ -5493,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>120</v>
@@ -5564,7 +5564,7 @@
         <v>66</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W65" s="2" t="s">
         <v>129</v>
@@ -5635,7 +5635,7 @@
         <v>45</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W66" s="2" t="s">
         <v>121</v>
@@ -5706,7 +5706,7 @@
         <v>37</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W67" s="2" t="s">
         <v>127</v>
@@ -5777,7 +5777,7 @@
         <v>36</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W68" s="2" t="s">
         <v>142</v>
@@ -5848,7 +5848,7 @@
         <v>30</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W69" s="2" t="s">
         <v>126</v>
@@ -5919,7 +5919,7 @@
         <v>35</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>144</v>
@@ -5990,7 +5990,7 @@
         <v>35</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W71" s="2" t="s">
         <v>125</v>
@@ -6061,7 +6061,7 @@
         <v>25</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W72" s="2" t="s">
         <v>145</v>
@@ -6132,7 +6132,7 @@
         <v>32</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W73" s="2" t="s">
         <v>143</v>
@@ -6203,7 +6203,7 @@
         <v>24</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>143</v>
@@ -6274,7 +6274,7 @@
         <v>30</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W75" s="2" t="s">
         <v>143</v>
@@ -6345,7 +6345,7 @@
         <v>22</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W76" s="2" t="s">
         <v>126</v>
@@ -6416,7 +6416,7 @@
         <v>45</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W77" s="2" t="s">
         <v>143</v>
@@ -6487,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>145</v>
@@ -6558,7 +6558,7 @@
         <v>60</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W79" s="2" t="s">
         <v>120</v>
@@ -6629,7 +6629,7 @@
         <v>45</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>143</v>
@@ -6700,7 +6700,7 @@
         <v>42</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>121</v>
@@ -6771,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W82" s="2" t="s">
         <v>143</v>
@@ -6842,7 +6842,7 @@
         <v>18</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W83" s="2" t="s">
         <v>143</v>
@@ -6913,7 +6913,7 @@
         <v>28</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W84" s="2" t="s">
         <v>142</v>
@@ -6984,7 +6984,7 @@
         <v>27</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W85" s="2" t="s">
         <v>146</v>
@@ -7055,7 +7055,7 @@
         <v>34.1</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>127</v>
@@ -7126,7 +7126,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W87" s="2" t="s">
         <v>147</v>
@@ -7197,7 +7197,7 @@
         <v>32</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="W88" s="2" t="s">
         <v>127</v>
@@ -7268,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W89" s="2" t="s">
         <v>128</v>
@@ -7339,7 +7339,7 @@
         <v>24</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W90" s="2" t="s">
         <v>128</v>
@@ -7410,7 +7410,7 @@
         <v>35</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W91" s="2" t="s">
         <v>128</v>

--- a/bike_cleaned.xlsx
+++ b/bike_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Razor\Desktop\Bike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E34B4-B5FE-487A-A3AD-05CA3323DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0089FCDC-5625-4CEA-9946-5BC47145D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AO44" sqref="AO44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
